--- a/RShinyApps/mydata.xlsx
+++ b/RShinyApps/mydata.xlsx
@@ -12,18 +12,315 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>count</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+  <si>
+    <t>Όνομα φαρμάκου</t>
+  </si>
+  <si>
+    <t>Μετρήσεις για NAUSEA</t>
+  </si>
+  <si>
+    <t>PRR</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>No results for any OMEPRAZOLE .</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>APREMILAST</t>
+  </si>
+  <si>
+    <t>ONDANSETRON HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>DULOXETINE HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>DIMETHYL FUMARATE</t>
+  </si>
+  <si>
+    <t>LORAZEPAM</t>
+  </si>
+  <si>
+    <t>LEVOTHYROXINE SODIUM</t>
+  </si>
+  <si>
+    <t>ERGOCALCIFEROL</t>
+  </si>
+  <si>
+    <t>RANITIDINE HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>ALPRAZOLAM</t>
+  </si>
+  <si>
+    <t>IBUPROFEN</t>
+  </si>
+  <si>
+    <t>SERTRALINE HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM</t>
+  </si>
+  <si>
+    <t>ACETAMINOPHEN</t>
+  </si>
+  <si>
+    <t>IBUPFROFEN</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 200 MG</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 200MG</t>
+  </si>
+  <si>
+    <t>IBUPROFEN ORAL</t>
+  </si>
+  <si>
+    <t>IBUPROFEN TABLETS</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE</t>
+  </si>
+  <si>
+    <t>GABAPENTIN</t>
+  </si>
+  <si>
+    <t>METFORMIN</t>
+  </si>
+  <si>
+    <t>METFORMIN ER 500 MG</t>
+  </si>
+  <si>
+    <t>METFORMIN ER 750 MG</t>
+  </si>
+  <si>
+    <t>LISINOPRIL</t>
+  </si>
+  <si>
+    <t>OMEPRAZOLE MAGNESIUM</t>
+  </si>
+  <si>
+    <t>ATENOLOL</t>
+  </si>
+  <si>
+    <t>ALBUTEROL SULFATE</t>
+  </si>
+  <si>
+    <t>OMEPRAZOLE</t>
+  </si>
+  <si>
+    <t>FOLIC ACID</t>
+  </si>
+  <si>
+    <t>METOPROLOL TARTRATE</t>
+  </si>
+  <si>
+    <t>ATORVASTATIN CALCIUM</t>
+  </si>
+  <si>
+    <t>PREDNISONE</t>
+  </si>
+  <si>
+    <t>METOPROLOL</t>
+  </si>
+  <si>
+    <t>ADALIMUMAB</t>
+  </si>
+  <si>
+    <t>ESOMEPRAZOLE MAGNESIUM</t>
+  </si>
+  <si>
+    <t>ESOMEPRAZOLE SODIUM</t>
+  </si>
+  <si>
+    <t>ETANERCEPT</t>
+  </si>
+  <si>
+    <t>METHOTREXATE SODIUM</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE</t>
+  </si>
+  <si>
+    <t>METHOTREXATE</t>
+  </si>
+  <si>
+    <t>AMLODIPINE</t>
+  </si>
+  <si>
+    <t>ASPIRIN</t>
+  </si>
+  <si>
+    <t>ASPIRIN 325 MG</t>
+  </si>
+  <si>
+    <t>ASPIRIN 81 MG</t>
+  </si>
+  <si>
+    <t>ASPIRIN 81MG</t>
+  </si>
+  <si>
+    <t>FUROSEMIDE</t>
+  </si>
+  <si>
+    <t>SIMVASTATIN</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE 1.5 MG</t>
+  </si>
+  <si>
+    <t>PREGABALIN</t>
+  </si>
+  <si>
+    <t>CLOPIDOGREL BISULFATE</t>
   </si>
 </sst>
 </file>
@@ -82,16 +379,708 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>15210.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11707.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12523.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7576.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8480.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14144.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12869.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6376.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8489.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9149.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6132.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6321.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11119.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6614.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6618.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6618.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6615.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6673.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5987.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12058.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9141.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7940.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7940.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12352.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="n">
+        <v>16549.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6039.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7665.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11524.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7703.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8705.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7617.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13168.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7756.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10683.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8324.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7867.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7247.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="n">
+        <v>14986.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8067.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12219.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7138.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="n">
+        <v>16664.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="n">
+        <v>15783.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="n">
+        <v>15788.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="n">
+        <v>15773.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12211.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9560.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6355.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8048.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6017.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>

--- a/RShinyApps/mydata.xlsx
+++ b/RShinyApps/mydata.xlsx
@@ -12,27 +12,315 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Count.1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+  <si>
+    <t>Όνομα φαρμάκου</t>
+  </si>
+  <si>
+    <t>Μετρήσεις για NAUSEA</t>
   </si>
   <si>
     <t>PRR</t>
   </si>
   <si>
-    <t>ROR</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Παρακαλώ εισάγετε όνομα φαρμάκου</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>APREMILAST</t>
+  </si>
+  <si>
+    <t>ONDANSETRON HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>DULOXETINE HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>DIMETHYL FUMARATE</t>
+  </si>
+  <si>
+    <t>LORAZEPAM</t>
+  </si>
+  <si>
+    <t>LEVOTHYROXINE SODIUM</t>
+  </si>
+  <si>
+    <t>ERGOCALCIFEROL</t>
+  </si>
+  <si>
+    <t>RANITIDINE HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>ALPRAZOLAM</t>
+  </si>
+  <si>
+    <t>IBUPROFEN</t>
+  </si>
+  <si>
+    <t>SERTRALINE HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM</t>
+  </si>
+  <si>
+    <t>ACETAMINOPHEN</t>
+  </si>
+  <si>
+    <t>IBUPFROFEN</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 200 MG</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 200MG</t>
+  </si>
+  <si>
+    <t>IBUPROFEN ORAL</t>
+  </si>
+  <si>
+    <t>IBUPROFEN TABLETS</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE</t>
+  </si>
+  <si>
+    <t>GABAPENTIN</t>
+  </si>
+  <si>
+    <t>METFORMIN</t>
+  </si>
+  <si>
+    <t>METFORMIN ER 500 MG</t>
+  </si>
+  <si>
+    <t>METFORMIN ER 750 MG</t>
+  </si>
+  <si>
+    <t>LISINOPRIL</t>
+  </si>
+  <si>
+    <t>OMEPRAZOLE MAGNESIUM</t>
+  </si>
+  <si>
+    <t>ATENOLOL</t>
+  </si>
+  <si>
+    <t>ALBUTEROL SULFATE</t>
+  </si>
+  <si>
+    <t>OMEPRAZOLE</t>
+  </si>
+  <si>
+    <t>FOLIC ACID</t>
+  </si>
+  <si>
+    <t>METOPROLOL TARTRATE</t>
+  </si>
+  <si>
+    <t>ATORVASTATIN CALCIUM</t>
+  </si>
+  <si>
+    <t>PREDNISONE</t>
+  </si>
+  <si>
+    <t>METOPROLOL</t>
+  </si>
+  <si>
+    <t>ADALIMUMAB</t>
+  </si>
+  <si>
+    <t>ESOMEPRAZOLE MAGNESIUM</t>
+  </si>
+  <si>
+    <t>ESOMEPRAZOLE SODIUM</t>
+  </si>
+  <si>
+    <t>ETANERCEPT</t>
+  </si>
+  <si>
+    <t>METHOTREXATE SODIUM</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE</t>
+  </si>
+  <si>
+    <t>METHOTREXATE</t>
+  </si>
+  <si>
+    <t>AMLODIPINE</t>
+  </si>
+  <si>
+    <t>ASPIRIN</t>
+  </si>
+  <si>
+    <t>ASPIRIN 325 MG</t>
+  </si>
+  <si>
+    <t>ASPIRIN 81 MG</t>
+  </si>
+  <si>
+    <t>ASPIRIN 81MG</t>
+  </si>
+  <si>
+    <t>FUROSEMIDE</t>
+  </si>
+  <si>
+    <t>SIMVASTATIN</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE 1.5 MG</t>
+  </si>
+  <si>
+    <t>PREGABALIN</t>
+  </si>
+  <si>
+    <t>CLOPIDOGREL BISULFATE</t>
   </si>
 </sst>
 </file>
@@ -94,31 +382,705 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15210.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11707.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12523.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7576.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8480.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14144.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12869.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6376.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8489.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9149.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6132.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6321.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11119.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6614.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6618.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6618.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6615.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6673.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5987.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12058.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9141.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7940.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7940.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12352.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="n">
+        <v>16549.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6039.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7665.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11524.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7703.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8705.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7617.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13168.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7756.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10683.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8324.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7867.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7247.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="n">
+        <v>14986.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8067.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12219.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7138.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="n">
+        <v>16664.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="n">
+        <v>15783.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="n">
+        <v>15788.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="n">
+        <v>15773.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12211.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9560.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6355.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8048.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6017.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>

--- a/RShinyApps/mydata.xlsx
+++ b/RShinyApps/mydata.xlsx
@@ -17,7 +17,7 @@
     <t>Όνομα φαρμάκου</t>
   </si>
   <si>
-    <t>Μετρήσεις για NAUSEA</t>
+    <t>Μετρήσεις για FLUSHING</t>
   </si>
   <si>
     <t>PRR</t>
@@ -173,154 +173,154 @@
     <t>50</t>
   </si>
   <si>
-    <t>APREMILAST</t>
-  </si>
-  <si>
-    <t>ONDANSETRON HYDROCHLORIDE</t>
-  </si>
-  <si>
-    <t>DULOXETINE HYDROCHLORIDE</t>
+    <t>NIACIN</t>
   </si>
   <si>
     <t>DIMETHYL FUMARATE</t>
   </si>
   <si>
-    <t>LORAZEPAM</t>
+    <t>DALFAMPRIDINE</t>
+  </si>
+  <si>
+    <t>FISH OIL</t>
+  </si>
+  <si>
+    <t>ASPIRIN 325 MG</t>
+  </si>
+  <si>
+    <t>ASPIRIN 81MG</t>
+  </si>
+  <si>
+    <t>ASPIRIN 81 MG</t>
+  </si>
+  <si>
+    <t>TREPROSTINIL</t>
+  </si>
+  <si>
+    <t>ASPIRIN</t>
+  </si>
+  <si>
+    <t>BENADRYL</t>
+  </si>
+  <si>
+    <t>TADALAFIL</t>
+  </si>
+  <si>
+    <t>GLATIRAMER ACETATE</t>
+  </si>
+  <si>
+    <t>DIPHENHYDRAMINE HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>SILDENAFIL CITRATE</t>
+  </si>
+  <si>
+    <t>AMBRISENTAN</t>
+  </si>
+  <si>
+    <t>BACLOFEN</t>
+  </si>
+  <si>
+    <t>ROSUVASTATIN CALCIUM</t>
+  </si>
+  <si>
+    <t>ERGOCALCIFEROL</t>
+  </si>
+  <si>
+    <t>LISINOPRIL</t>
+  </si>
+  <si>
+    <t>WARFARIN SODIUM</t>
+  </si>
+  <si>
+    <t>ATORVASTATIN CALCIUM</t>
+  </si>
+  <si>
+    <t>CLOPIDOGREL</t>
+  </si>
+  <si>
+    <t>SIMVASTATIN</t>
+  </si>
+  <si>
+    <t>METOPROLOL</t>
+  </si>
+  <si>
+    <t>METOPROLOL TARTRATE</t>
+  </si>
+  <si>
+    <t>CLOPIDOGREL BISULFATE</t>
+  </si>
+  <si>
+    <t>HYDROCHLOROTHIAZIDE</t>
   </si>
   <si>
     <t>LEVOTHYROXINE SODIUM</t>
   </si>
   <si>
-    <t>ERGOCALCIFEROL</t>
+    <t>INFLIXIMAB</t>
+  </si>
+  <si>
+    <t>ATENOLOL</t>
   </si>
   <si>
     <t>RANITIDINE HYDROCHLORIDE</t>
   </si>
   <si>
-    <t>ALPRAZOLAM</t>
-  </si>
-  <si>
     <t>IBUPROFEN</t>
   </si>
   <si>
-    <t>SERTRALINE HYDROCHLORIDE</t>
-  </si>
-  <si>
-    <t>CLONAZEPAM</t>
+    <t>IBUPROFEN TABLETS</t>
+  </si>
+  <si>
+    <t>IBUPFROFEN</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 200 MG</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 200MG</t>
+  </si>
+  <si>
+    <t>IBUPROFEN ORAL</t>
+  </si>
+  <si>
+    <t>METFORMIN</t>
   </si>
   <si>
     <t>ACETAMINOPHEN</t>
   </si>
   <si>
-    <t>IBUPFROFEN</t>
-  </si>
-  <si>
-    <t>IBUPROFEN 200 MG</t>
-  </si>
-  <si>
-    <t>IBUPROFEN 200MG</t>
-  </si>
-  <si>
-    <t>IBUPROFEN ORAL</t>
-  </si>
-  <si>
-    <t>IBUPROFEN TABLETS</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE</t>
-  </si>
-  <si>
     <t>GABAPENTIN</t>
   </si>
   <si>
-    <t>METFORMIN</t>
-  </si>
-  <si>
     <t>METFORMIN ER 500 MG</t>
   </si>
   <si>
     <t>METFORMIN ER 750 MG</t>
   </si>
   <si>
-    <t>LISINOPRIL</t>
-  </si>
-  <si>
     <t>OMEPRAZOLE MAGNESIUM</t>
   </si>
   <si>
-    <t>ATENOLOL</t>
-  </si>
-  <si>
-    <t>ALBUTEROL SULFATE</t>
+    <t>AMLODIPINE</t>
   </si>
   <si>
     <t>OMEPRAZOLE</t>
   </si>
   <si>
-    <t>FOLIC ACID</t>
-  </si>
-  <si>
-    <t>METOPROLOL TARTRATE</t>
-  </si>
-  <si>
-    <t>ATORVASTATIN CALCIUM</t>
+    <t>ESOMEPRAZOLE MAGNESIUM</t>
+  </si>
+  <si>
+    <t>ESOMEPRAZOLE SODIUM</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE</t>
+  </si>
+  <si>
+    <t>FUROSEMIDE</t>
   </si>
   <si>
     <t>PREDNISONE</t>
-  </si>
-  <si>
-    <t>METOPROLOL</t>
-  </si>
-  <si>
-    <t>ADALIMUMAB</t>
-  </si>
-  <si>
-    <t>ESOMEPRAZOLE MAGNESIUM</t>
-  </si>
-  <si>
-    <t>ESOMEPRAZOLE SODIUM</t>
-  </si>
-  <si>
-    <t>ETANERCEPT</t>
-  </si>
-  <si>
-    <t>METHOTREXATE SODIUM</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE</t>
-  </si>
-  <si>
-    <t>METHOTREXATE</t>
-  </si>
-  <si>
-    <t>AMLODIPINE</t>
-  </si>
-  <si>
-    <t>ASPIRIN</t>
-  </si>
-  <si>
-    <t>ASPIRIN 325 MG</t>
-  </si>
-  <si>
-    <t>ASPIRIN 81 MG</t>
-  </si>
-  <si>
-    <t>ASPIRIN 81MG</t>
-  </si>
-  <si>
-    <t>FUROSEMIDE</t>
-  </si>
-  <si>
-    <t>SIMVASTATIN</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE 1.5 MG</t>
-  </si>
-  <si>
-    <t>PREGABALIN</t>
-  </si>
-  <si>
-    <t>CLOPIDOGREL BISULFATE</t>
   </si>
 </sst>
 </file>
@@ -391,10 +391,10 @@
         <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>15210.0</v>
+        <v>11032.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.74</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="3">
@@ -405,10 +405,10 @@
         <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>11707.0</v>
+        <v>13832.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.86</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="4">
@@ -419,10 +419,10 @@
         <v>55</v>
       </c>
       <c r="C4" t="n">
-        <v>12523.0</v>
+        <v>1780.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2.36</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="5">
@@ -433,10 +433,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="n">
-        <v>7576.0</v>
+        <v>2537.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.77</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -447,10 +447,10 @@
         <v>57</v>
       </c>
       <c r="C6" t="n">
-        <v>8480.0</v>
+        <v>10709.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.69</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="7">
@@ -461,10 +461,10 @@
         <v>58</v>
       </c>
       <c r="C7" t="n">
-        <v>14144.0</v>
+        <v>10707.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.63</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="8">
@@ -475,10 +475,10 @@
         <v>59</v>
       </c>
       <c r="C8" t="n">
-        <v>12869.0</v>
+        <v>10709.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.55</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="9">
@@ -489,10 +489,10 @@
         <v>60</v>
       </c>
       <c r="C9" t="n">
-        <v>6376.0</v>
+        <v>1411.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.52</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="10">
@@ -503,10 +503,10 @@
         <v>61</v>
       </c>
       <c r="C10" t="n">
-        <v>8489.0</v>
+        <v>10847.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.48</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="11">
@@ -517,10 +517,10 @@
         <v>62</v>
       </c>
       <c r="C11" t="n">
-        <v>9149.0</v>
+        <v>1436.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.48</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>63</v>
       </c>
       <c r="C12" t="n">
-        <v>6132.0</v>
+        <v>1826.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.44</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="13">
@@ -545,10 +545,10 @@
         <v>64</v>
       </c>
       <c r="C13" t="n">
-        <v>6321.0</v>
+        <v>1094.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.43</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="14">
@@ -559,10 +559,10 @@
         <v>65</v>
       </c>
       <c r="C14" t="n">
-        <v>11119.0</v>
+        <v>1880.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.41</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15">
@@ -573,10 +573,10 @@
         <v>66</v>
       </c>
       <c r="C15" t="n">
-        <v>6614.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.37</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -587,10 +587,10 @@
         <v>67</v>
       </c>
       <c r="C16" t="n">
-        <v>6618.0</v>
+        <v>1640.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.37</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="17">
@@ -601,10 +601,10 @@
         <v>68</v>
       </c>
       <c r="C17" t="n">
-        <v>6618.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.37</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="18">
@@ -615,10 +615,10 @@
         <v>69</v>
       </c>
       <c r="C18" t="n">
-        <v>6615.0</v>
+        <v>2338.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.37</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="19">
@@ -629,10 +629,10 @@
         <v>70</v>
       </c>
       <c r="C19" t="n">
-        <v>6673.0</v>
+        <v>3088.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.37</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="20">
@@ -643,10 +643,10 @@
         <v>71</v>
       </c>
       <c r="C20" t="n">
-        <v>5987.0</v>
+        <v>3416.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.35</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="21">
@@ -657,10 +657,10 @@
         <v>72</v>
       </c>
       <c r="C21" t="n">
-        <v>12058.0</v>
+        <v>1269.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.34</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="22">
@@ -671,10 +671,10 @@
         <v>73</v>
       </c>
       <c r="C22" t="n">
-        <v>9141.0</v>
+        <v>2037.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.32</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>74</v>
       </c>
       <c r="C23" t="n">
-        <v>7940.0</v>
+        <v>2028.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="24">
@@ -699,10 +699,10 @@
         <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>7940.0</v>
+        <v>2781.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="25">
@@ -713,10 +713,10 @@
         <v>76</v>
       </c>
       <c r="C25" t="n">
-        <v>12352.0</v>
+        <v>2031.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="26">
@@ -727,10 +727,10 @@
         <v>77</v>
       </c>
       <c r="C26" t="n">
-        <v>16549.0</v>
+        <v>2202.0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="27">
@@ -741,10 +741,10 @@
         <v>78</v>
       </c>
       <c r="C27" t="n">
-        <v>6039.0</v>
+        <v>2048.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.3</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="28">
@@ -755,10 +755,10 @@
         <v>79</v>
       </c>
       <c r="C28" t="n">
-        <v>7665.0</v>
+        <v>1263.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.26</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="29">
@@ -769,10 +769,10 @@
         <v>80</v>
       </c>
       <c r="C29" t="n">
-        <v>11524.0</v>
+        <v>2671.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="30">
@@ -783,10 +783,10 @@
         <v>81</v>
       </c>
       <c r="C30" t="n">
-        <v>7703.0</v>
+        <v>1627.0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="31">
@@ -797,10 +797,10 @@
         <v>82</v>
       </c>
       <c r="C31" t="n">
-        <v>8705.0</v>
+        <v>1298.0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="32">
@@ -811,10 +811,10 @@
         <v>83</v>
       </c>
       <c r="C32" t="n">
-        <v>7617.0</v>
+        <v>1179.0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="33">
@@ -825,10 +825,10 @@
         <v>84</v>
       </c>
       <c r="C33" t="n">
-        <v>13168.0</v>
+        <v>1452.0</v>
       </c>
       <c r="D33" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="34">
@@ -839,10 +839,10 @@
         <v>85</v>
       </c>
       <c r="C34" t="n">
-        <v>7756.0</v>
+        <v>1058.0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="35">
@@ -853,10 +853,10 @@
         <v>86</v>
       </c>
       <c r="C35" t="n">
-        <v>10683.0</v>
+        <v>1025.0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="36">
@@ -867,10 +867,10 @@
         <v>87</v>
       </c>
       <c r="C36" t="n">
-        <v>8324.0</v>
+        <v>1025.0</v>
       </c>
       <c r="D36" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="37">
@@ -881,10 +881,10 @@
         <v>88</v>
       </c>
       <c r="C37" t="n">
-        <v>7867.0</v>
+        <v>1025.0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="38">
@@ -895,10 +895,10 @@
         <v>89</v>
       </c>
       <c r="C38" t="n">
-        <v>7247.0</v>
+        <v>1025.0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="39">
@@ -909,10 +909,10 @@
         <v>90</v>
       </c>
       <c r="C39" t="n">
-        <v>14986.0</v>
+        <v>1420.0</v>
       </c>
       <c r="D39" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="40">
@@ -923,10 +923,10 @@
         <v>91</v>
       </c>
       <c r="C40" t="n">
-        <v>8067.0</v>
+        <v>1559.0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="41">
@@ -937,10 +937,10 @@
         <v>92</v>
       </c>
       <c r="C41" t="n">
-        <v>12219.0</v>
+        <v>1767.0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="42">
@@ -951,10 +951,10 @@
         <v>93</v>
       </c>
       <c r="C42" t="n">
-        <v>7138.0</v>
+        <v>1164.0</v>
       </c>
       <c r="D42" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="43">
@@ -965,10 +965,10 @@
         <v>94</v>
       </c>
       <c r="C43" t="n">
-        <v>16664.0</v>
+        <v>1164.0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="44">
@@ -979,10 +979,10 @@
         <v>95</v>
       </c>
       <c r="C44" t="n">
-        <v>15783.0</v>
+        <v>2482.0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="45">
@@ -993,10 +993,10 @@
         <v>96</v>
       </c>
       <c r="C45" t="n">
-        <v>15788.0</v>
+        <v>1208.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="46">
@@ -1007,10 +1007,10 @@
         <v>97</v>
       </c>
       <c r="C46" t="n">
-        <v>15773.0</v>
+        <v>1567.0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.11</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="47">
@@ -1021,10 +1021,10 @@
         <v>98</v>
       </c>
       <c r="C47" t="n">
-        <v>12211.0</v>
+        <v>1169.0</v>
       </c>
       <c r="D47" t="n">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="48">
@@ -1035,10 +1035,10 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>9560.0</v>
+        <v>1098.0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="49">
@@ -1049,10 +1049,10 @@
         <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>6355.0</v>
+        <v>1095.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.02</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="50">
@@ -1063,10 +1063,10 @@
         <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v>8048.0</v>
+        <v>1665.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.01</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="51">
@@ -1077,10 +1077,10 @@
         <v>102</v>
       </c>
       <c r="C51" t="n">
-        <v>6017.0</v>
+        <v>1240.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.91</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/RShinyApps/mydata.xlsx
+++ b/RShinyApps/mydata.xlsx
@@ -12,27 +12,315 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Count.1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+  <si>
+    <t>Όνομα φαρμάκου</t>
+  </si>
+  <si>
+    <t>Μετρήσεις για SPRUE-LIKE ENTEROPATHY</t>
   </si>
   <si>
     <t>PRR</t>
   </si>
   <si>
-    <t>ROR</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Please enter a Drug name</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>OLMESARTAN MEDOXOMIL-HYDROCHLOROTHIAZIDE</t>
+  </si>
+  <si>
+    <t>AMLODIPINE BESYLATE AND OLMESARTAN MEDOXOMIL</t>
+  </si>
+  <si>
+    <t>OLMESARTAN MEDOXOMIL</t>
+  </si>
+  <si>
+    <t>HYDROCHLOROTHIAZIDE</t>
+  </si>
+  <si>
+    <t>CLONIDINE</t>
+  </si>
+  <si>
+    <t>METRONIDAZOLE</t>
+  </si>
+  <si>
+    <t>AMLODIPINE BESYLATE</t>
+  </si>
+  <si>
+    <t>HYDROCODONE BITARTRATE AND ACETAMINOPHEN</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATE</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN TABLETS</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>NAPROXEN</t>
+  </si>
+  <si>
+    <t>POTASSIUM CHLORIDE</t>
+  </si>
+  <si>
+    <t>CARVEDILOL</t>
+  </si>
+  <si>
+    <t>METFORMIN ER 500 MG</t>
+  </si>
+  <si>
+    <t>METFORMIN ER 750 MG</t>
+  </si>
+  <si>
+    <t>AMLODIPINE</t>
+  </si>
+  <si>
+    <t>METFORMIN</t>
+  </si>
+  <si>
+    <t>ZOLPIDEM TARTRATE</t>
+  </si>
+  <si>
+    <t>LEVOTHYROXINE</t>
+  </si>
+  <si>
+    <t>METOPROLOL TARTRATE</t>
+  </si>
+  <si>
+    <t>NAPROXEN SODIUM</t>
+  </si>
+  <si>
+    <t>ESOMEPRAZOLE MAGNESIUM</t>
+  </si>
+  <si>
+    <t>ESOMEPRAZOLE SODIUM</t>
+  </si>
+  <si>
+    <t>METOPROLOL</t>
+  </si>
+  <si>
+    <t>SIMVASTATIN</t>
+  </si>
+  <si>
+    <t>ALPRAZOLAM</t>
+  </si>
+  <si>
+    <t>FUROSEMIDE</t>
+  </si>
+  <si>
+    <t>OMEPRAZOLE</t>
+  </si>
+  <si>
+    <t>OMEPRAZOLE MAGNESIUM</t>
+  </si>
+  <si>
+    <t>ROSUVASTATIN CALCIUM</t>
+  </si>
+  <si>
+    <t>ATENOLOL</t>
+  </si>
+  <si>
+    <t>ATORVASTATIN CALCIUM</t>
+  </si>
+  <si>
+    <t>IBUPFROFEN</t>
+  </si>
+  <si>
+    <t>IBUPROFEN</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 200 MG</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 200MG</t>
+  </si>
+  <si>
+    <t>IBUPROFEN ORAL</t>
+  </si>
+  <si>
+    <t>IBUPROFEN TABLETS</t>
+  </si>
+  <si>
+    <t>ONDANSETRON HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>RANITIDINE HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE</t>
+  </si>
+  <si>
+    <t>ALBUTEROL SULFATE</t>
+  </si>
+  <si>
+    <t>CLOPIDOGREL</t>
+  </si>
+  <si>
+    <t>CLOPIDOGREL BISULFATE</t>
+  </si>
+  <si>
+    <t>GABAPENTIN</t>
+  </si>
+  <si>
+    <t>LEVOTHYROXINE SODIUM</t>
+  </si>
+  <si>
+    <t>LISINOPRIL</t>
+  </si>
+  <si>
+    <t>PREDNISONE</t>
   </si>
 </sst>
 </file>
@@ -94,31 +382,705 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2387.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3282.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/RShinyApps/mydata.xlsx
+++ b/RShinyApps/mydata.xlsx
@@ -12,27 +12,468 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Count.1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Προτιμώμενος όρος</t>
+  </si>
+  <si>
+    <t>Counts for OLMESARTAN MEDOXOMIL</t>
   </si>
   <si>
     <t>PRR</t>
   </si>
   <si>
-    <t>ROR</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Please enter a Drug name</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/SPRUE-LIKE%20ENTEROPATHY" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/MALABSORPTION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/LARGE%20INTESTINE%20POLYP" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DIVERTICULUM%20INTESTINAL" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DIVERTICULUM" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/HAEMORRHOIDS" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/HIATUS%20HERNIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/COELIAC%20DISEASE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/IRRITABLE%20BOWEL%20SYNDROME" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DIVERTICULITIS" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/GASTROOESOPHAGEAL%20REFLUX%20DISEASE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ACUTE%20KIDNEY%20INJURY" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/CHRONIC%20KIDNEY%20DISEASE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/WEIGHT%20DECREASED" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/CONSTIPATION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/SYNCOPE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/HYPOTENSION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/BLOOD%20PRESSURE%20INCREASED" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/RENAL%20FAILURE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/GASTROINTESTINAL%20HAEMORRHAGE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DEHYDRATION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/FLUSHING" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DIZZINESS" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/HYPERTENSION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/OEDEMA%20PERIPHERAL" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DIARRHOEA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ANAEMIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/PRURITUS" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ABDOMINAL%20PAIN" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/CHEST%20PAIN" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ANXIETY" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/BACK%20PAIN" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DEPRESSION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/NAUSEA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/VOMITING" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ASTHENIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/COUGH" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/FALL" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/FEELING%20ABNORMAL" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/INSOMNIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/PAIN%20IN%20EXTREMITY" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ARTHRALGIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/HEADACHE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/RASH" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DYSPNOEA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/FATIGUE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/PAIN" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/MALAISE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DRUG%20INEFFECTIVE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/OFF%20LABEL%20USE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>SPRUE-LIKE ENTEROPATHY</t>
+  </si>
+  <si>
+    <t>MALABSORPTION</t>
+  </si>
+  <si>
+    <t>LARGE INTESTINE POLYP</t>
+  </si>
+  <si>
+    <t>DIVERTICULUM INTESTINAL</t>
+  </si>
+  <si>
+    <t>DIVERTICULUM</t>
+  </si>
+  <si>
+    <t>HAEMORRHOIDS</t>
+  </si>
+  <si>
+    <t>HIATUS HERNIA</t>
+  </si>
+  <si>
+    <t>COELIAC DISEASE</t>
+  </si>
+  <si>
+    <t>IRRITABLE BOWEL SYNDROME</t>
+  </si>
+  <si>
+    <t>DIVERTICULITIS</t>
+  </si>
+  <si>
+    <t>GASTROOESOPHAGEAL REFLUX DISEASE</t>
+  </si>
+  <si>
+    <t>ACUTE KIDNEY INJURY</t>
+  </si>
+  <si>
+    <t>CHRONIC KIDNEY DISEASE</t>
+  </si>
+  <si>
+    <t>WEIGHT DECREASED</t>
+  </si>
+  <si>
+    <t>CONSTIPATION</t>
+  </si>
+  <si>
+    <t>SYNCOPE</t>
+  </si>
+  <si>
+    <t>HYPOTENSION</t>
+  </si>
+  <si>
+    <t>BLOOD PRESSURE INCREASED</t>
+  </si>
+  <si>
+    <t>RENAL FAILURE</t>
+  </si>
+  <si>
+    <t>GASTROINTESTINAL HAEMORRHAGE</t>
+  </si>
+  <si>
+    <t>DEHYDRATION</t>
+  </si>
+  <si>
+    <t>FLUSHING</t>
+  </si>
+  <si>
+    <t>DIZZINESS</t>
+  </si>
+  <si>
+    <t>HYPERTENSION</t>
+  </si>
+  <si>
+    <t>OEDEMA PERIPHERAL</t>
+  </si>
+  <si>
+    <t>DIARRHOEA</t>
+  </si>
+  <si>
+    <t>ANAEMIA</t>
+  </si>
+  <si>
+    <t>PRURITUS</t>
+  </si>
+  <si>
+    <t>ABDOMINAL PAIN</t>
+  </si>
+  <si>
+    <t>CHEST PAIN</t>
+  </si>
+  <si>
+    <t>ANXIETY</t>
+  </si>
+  <si>
+    <t>BACK PAIN</t>
+  </si>
+  <si>
+    <t>DEPRESSION</t>
+  </si>
+  <si>
+    <t>NAUSEA</t>
+  </si>
+  <si>
+    <t>VOMITING</t>
+  </si>
+  <si>
+    <t>ASTHENIA</t>
+  </si>
+  <si>
+    <t>COUGH</t>
+  </si>
+  <si>
+    <t>FALL</t>
+  </si>
+  <si>
+    <t>FEELING ABNORMAL</t>
+  </si>
+  <si>
+    <t>INSOMNIA</t>
+  </si>
+  <si>
+    <t>PAIN IN EXTREMITY</t>
+  </si>
+  <si>
+    <t>ARTHRALGIA</t>
+  </si>
+  <si>
+    <t>HEADACHE</t>
+  </si>
+  <si>
+    <t>RASH</t>
+  </si>
+  <si>
+    <t>DYSPNOEA</t>
+  </si>
+  <si>
+    <t>FATIGUE</t>
+  </si>
+  <si>
+    <t>PAIN</t>
+  </si>
+  <si>
+    <t>MALAISE</t>
+  </si>
+  <si>
+    <t>DRUG INEFFECTIVE</t>
+  </si>
+  <si>
+    <t>OFF LABEL USE</t>
   </si>
 </sst>
 </file>
@@ -97,28 +538,855 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3282.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>990.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="n">
+        <v>648.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>92.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="n">
+        <v>851.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>89.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="n">
+        <v>793.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>49.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1362.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="n">
+        <v>967.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>34.93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="n">
+        <v>653.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25.37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1935.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1648.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="n">
+        <v>772.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1141.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1027.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>479.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="n">
+        <v>631.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1717.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="n">
+        <v>732.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="n">
+        <v>469.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="n">
+        <v>481.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" t="n">
+        <v>635.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1551.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" t="n">
+        <v>921.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" t="n">
+        <v>781.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="n">
+        <v>498.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="n">
+        <v>655.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" t="n">
+        <v>531.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" t="n">
+        <v>570.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" t="n">
+        <v>613.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1017.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="n">
+        <v>568.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" t="n">
+        <v>908.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1120.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" t="n">
+        <v>686.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1452.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" t="n">
+        <v>486.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>

--- a/RShinyApps/mydata.xlsx
+++ b/RShinyApps/mydata.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Term</t>
+    <t>Definition</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>Preferred Term</t>
   </si>
   <si>
-    <t>Count.1</t>
+    <t>Counts for OLMESARTAN MEDOXOMIL</t>
   </si>
   <si>
     <t>PRR</t>
@@ -32,7 +32,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Please enter a Drug name</t>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/SPRUE-LIKE%20ENTEROPATHY" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>SPRUE-LIKE ENTEROPATHY</t>
   </si>
 </sst>
 </file>
@@ -108,17 +111,17 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>3282.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1463.77</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>348.69</v>
       </c>
     </row>
   </sheetData>

--- a/RShinyApps/mydata.xlsx
+++ b/RShinyApps/mydata.xlsx
@@ -14,13 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>Preferred Term</t>
   </si>
   <si>
-    <t>Counts for OLMESARTAN MEDOXOMIL</t>
+    <t>Counts for OMEPRAZOLE</t>
   </si>
   <si>
     <t>PRR</t>
@@ -29,13 +26,16 @@
     <t>ROR</t>
   </si>
   <si>
+    <t>CPRR</t>
+  </si>
+  <si>
+    <t>CROR</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/SPRUE-LIKE%20ENTEROPATHY" target="_blank"&gt;Definition&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>SPRUE-LIKE ENTEROPATHY</t>
+    <t>ANAEMIA</t>
   </si>
 </sst>
 </file>
@@ -103,25 +103,31 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="n">
+        <v>4583.0</v>
+      </c>
       <c r="D2" t="n">
-        <v>3282.0</v>
+        <v>2.03</v>
       </c>
       <c r="E2" t="n">
-        <v>1463.77</v>
+        <v>2.01</v>
       </c>
       <c r="F2" t="n">
-        <v>348.69</v>
+        <v>0.05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/RShinyApps/mydata.xlsx
+++ b/RShinyApps/mydata.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+  <si>
+    <t>Definition</t>
+  </si>
   <si>
     <t>Preferred Term</t>
   </si>
@@ -26,16 +29,454 @@
     <t>ROR</t>
   </si>
   <si>
-    <t>CPRR</t>
-  </si>
-  <si>
-    <t>CROR</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/CHRONIC%20KIDNEY%20DISEASE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ACUTE%20KIDNEY%20INJURY" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/RENAL%20FAILURE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/GASTROOESOPHAGEAL%20REFLUX%20DISEASE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DRUG%20INTERACTION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/CONFUSIONAL%20STATE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/URINARY%20TRACT%20INFECTION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ANAEMIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DEHYDRATION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ABDOMINAL%20PAIN" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/PNEUMONIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/FALL" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/CONSTIPATION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ABDOMINAL%20PAIN%20UPPER" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DECREASED%20APPETITE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/HYPOTENSION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/CHEST%20PAIN" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DIARRHOEA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DYSPNOEA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/WEIGHT%20DECREASED" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ASTHENIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/COUGH" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/BACK%20PAIN" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/VOMITING" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/HYPERTENSION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/MUSCLE%20SPASMS" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/MYALGIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ARTHRALGIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/PAIN%20IN%20EXTREMITY" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/PYREXIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DIZZINESS" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/TREMOR" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/MALAISE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/GAIT%20DISTURBANCE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/FATIGUE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DEPRESSION" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/NAUSEA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/CONDITION%20AGGRAVATED" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/PAIN" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/SOMNOLENCE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/INSOMNIA" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/PRURITUS" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/ANXIETY" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/HEADACHE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/WEIGHT%20INCREASED" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/FEELING%20ABNORMAL" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/RASH" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/OFF%20LABEL%20USE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DRUG%20INEFFECTIVE" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.merriam-webster.com/medlineplus/DEATH" target="_blank"&gt;Definition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CHRONIC KIDNEY DISEASE</t>
+  </si>
+  <si>
+    <t>ACUTE KIDNEY INJURY</t>
+  </si>
+  <si>
+    <t>RENAL FAILURE</t>
+  </si>
+  <si>
+    <t>GASTROOESOPHAGEAL REFLUX DISEASE</t>
+  </si>
+  <si>
+    <t>DRUG INTERACTION</t>
+  </si>
+  <si>
+    <t>CONFUSIONAL STATE</t>
+  </si>
+  <si>
+    <t>URINARY TRACT INFECTION</t>
+  </si>
+  <si>
     <t>ANAEMIA</t>
+  </si>
+  <si>
+    <t>DEHYDRATION</t>
+  </si>
+  <si>
+    <t>ABDOMINAL PAIN</t>
+  </si>
+  <si>
+    <t>PNEUMONIA</t>
+  </si>
+  <si>
+    <t>FALL</t>
+  </si>
+  <si>
+    <t>CONSTIPATION</t>
+  </si>
+  <si>
+    <t>ABDOMINAL PAIN UPPER</t>
+  </si>
+  <si>
+    <t>DECREASED APPETITE</t>
+  </si>
+  <si>
+    <t>HYPOTENSION</t>
+  </si>
+  <si>
+    <t>CHEST PAIN</t>
+  </si>
+  <si>
+    <t>DIARRHOEA</t>
+  </si>
+  <si>
+    <t>DYSPNOEA</t>
+  </si>
+  <si>
+    <t>WEIGHT DECREASED</t>
+  </si>
+  <si>
+    <t>ASTHENIA</t>
+  </si>
+  <si>
+    <t>COUGH</t>
+  </si>
+  <si>
+    <t>BACK PAIN</t>
+  </si>
+  <si>
+    <t>VOMITING</t>
+  </si>
+  <si>
+    <t>HYPERTENSION</t>
+  </si>
+  <si>
+    <t>MUSCLE SPASMS</t>
+  </si>
+  <si>
+    <t>MYALGIA</t>
+  </si>
+  <si>
+    <t>ARTHRALGIA</t>
+  </si>
+  <si>
+    <t>PAIN IN EXTREMITY</t>
+  </si>
+  <si>
+    <t>PYREXIA</t>
+  </si>
+  <si>
+    <t>DIZZINESS</t>
+  </si>
+  <si>
+    <t>TREMOR</t>
+  </si>
+  <si>
+    <t>MALAISE</t>
+  </si>
+  <si>
+    <t>GAIT DISTURBANCE</t>
+  </si>
+  <si>
+    <t>FATIGUE</t>
+  </si>
+  <si>
+    <t>DEPRESSION</t>
+  </si>
+  <si>
+    <t>NAUSEA</t>
+  </si>
+  <si>
+    <t>CONDITION AGGRAVATED</t>
+  </si>
+  <si>
+    <t>PAIN</t>
+  </si>
+  <si>
+    <t>SOMNOLENCE</t>
+  </si>
+  <si>
+    <t>INSOMNIA</t>
+  </si>
+  <si>
+    <t>PRURITUS</t>
+  </si>
+  <si>
+    <t>ANXIETY</t>
+  </si>
+  <si>
+    <t>HEADACHE</t>
+  </si>
+  <si>
+    <t>WEIGHT INCREASED</t>
+  </si>
+  <si>
+    <t>FEELING ABNORMAL</t>
+  </si>
+  <si>
+    <t>RASH</t>
+  </si>
+  <si>
+    <t>OFF LABEL USE</t>
+  </si>
+  <si>
+    <t>DRUG INEFFECTIVE</t>
+  </si>
+  <si>
+    <t>DEATH</t>
   </si>
 </sst>
 </file>
@@ -103,31 +544,1005 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10425.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7977.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
-        <v>4583.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.05</v>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5921.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3214.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5472.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3824.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4706.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3155.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4981.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6603.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6914.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4087.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4038.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4375.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3814.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3920.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11903.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10708.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5259.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7041.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4826.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4309.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8462.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3685.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3269.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3100.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6481.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5412.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5759.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8366.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2932.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7698.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3319.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11658.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3977.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12312.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3725.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8348.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3093.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4253.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4553.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4164.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8789.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2990.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3269.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4858.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5375.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10352.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5363.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
